--- a/medicine/Mort/Cimetière_juif_de_Putte/Cimetière_juif_de_Putte.xlsx
+++ b/medicine/Mort/Cimetière_juif_de_Putte/Cimetière_juif_de_Putte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Putte</t>
+          <t>Cimetière_juif_de_Putte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cimetières juifs de Putte à Putte, en Campine, aux Pays-Bas, sont situés au centre du territoire de cette commune et au nord du bourg qui est bordé par la frontière entre la Belgique et les Pays-Bas, aux adresses Krommerweg 5 pour le Shomrei Hadass Joods Kerkhof et Noorweg 38 pour le Machzikei Hadas. Proches l'un de l'autre, ils sont à une vingtaine de kilomètres au nord d'Anvers. Les trois principales communautés juives d’Anvers ont leurs cimetières à Putte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Putte</t>
+          <t>Cimetière_juif_de_Putte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les communautés d'Anvers voulant une inhumation à perpétuité, une condition qui ne peut être garantie à Anvers, enterrent leur défunts ailleurs, dans les cimetières juif de Putte, aux Pays-Bas[1], situé à une distance rapprochée d'Anvers.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communautés d'Anvers voulant une inhumation à perpétuité, une condition qui ne peut être garantie à Anvers, enterrent leur défunts ailleurs, dans les cimetières juif de Putte, aux Pays-Bas, situé à une distance rapprochée d'Anvers.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Putte</t>
+          <t>Cimetière_juif_de_Putte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités enterrées à Putte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Moshe Yitzchok Gewirtzman
 Yaakov Leiser</t>
